--- a/vertx-pin/zero-erp/src/main/resources/workflow/workflow-erp.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/workflow/workflow-erp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/workflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0FA04A-4A22-3C40-A733-61472534A4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E39271A-9222-9F4D-8905-7546038E74EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2680" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="69360" yWindow="-3360" windowWidth="38400" windowHeight="22600" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-APP" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>key</t>
   </si>
@@ -197,126 +197,254 @@
     <t>JSON:workflow/process.oa.assignment/component.run.json</t>
   </si>
   <si>
+    <t>培训管理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差申请流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工休假申请流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.oa.training</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.training/component.generate.json</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.training/component.run.json</t>
+  </si>
+  <si>
+    <t>process.oa.trip</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.trip/component.generate.json</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.trip/component.run.json</t>
+  </si>
+  <si>
+    <t>process.oa.vacation</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.vacation/component.generate.json</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.vacation/component.run.json</t>
+  </si>
+  <si>
+    <t>员工考核流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工入场申请流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工离场申请流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时补签流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.vendor.assessment</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.assessment/component.generate.json</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.assessment/component.run.json</t>
+  </si>
+  <si>
+    <t>process.vendor.check-in</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-in/component.generate.json</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-in/component.run.json</t>
+  </si>
+  <si>
+    <t>process.vendor.check-out</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-out/component.generate.json</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-out/component.run.json</t>
+  </si>
+  <si>
+    <t>process.vendor.hour</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.hour/component.generate.json</t>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.hour/component.run.json</t>
+  </si>
+  <si>
+    <t>workflow.oa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面辅助配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiAssist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiLinkage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JSON:workflow/process.oa.assignment/component.start.json</t>
-  </si>
-  <si>
-    <t>培训管理流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差申请流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工休假申请流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process.oa.training</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.oa.training/component.generate.json</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.oa.training/component.run.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.assignment/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.assignment/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.assignment/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:workflow/process.oa.training/component.start.json</t>
-  </si>
-  <si>
-    <t>process.oa.trip</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.oa.trip/component.generate.json</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.oa.trip/component.run.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.training/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.training/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.training/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:workflow/process.oa.trip/component.start.json</t>
-  </si>
-  <si>
-    <t>process.oa.vacation</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.oa.vacation/component.generate.json</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.oa.vacation/component.run.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.trip/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.trip/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.trip/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:workflow/process.oa.vacation/component.start.json</t>
-  </si>
-  <si>
-    <t>员工考核流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工入场申请流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工离场申请流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时补签流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process.vendor.assessment</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.assessment/component.generate.json</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.assessment/component.run.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.vacation/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.vacation/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.oa.vacation/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:workflow/process.vendor.assessment/component.start.json</t>
-  </si>
-  <si>
-    <t>process.vendor.check-in</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.check-in/component.generate.json</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.check-in/component.run.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.assessment/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.assessment/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.assessment/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:workflow/process.vendor.check-in/component.start.json</t>
-  </si>
-  <si>
-    <t>process.vendor.check-out</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.check-out/component.generate.json</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.check-out/component.run.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-in/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-in/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-in/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:workflow/process.vendor.check-out/component.start.json</t>
-  </si>
-  <si>
-    <t>process.vendor.hour</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.hour/component.generate.json</t>
-  </si>
-  <si>
-    <t>JSON:workflow/process.vendor.hour/component.run.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-out/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-out/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.check-out/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:workflow/process.vendor.hour/component.start.json</t>
-  </si>
-  <si>
-    <t>workflow.oa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workflow.hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.hour/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.hour/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.vendor.hour/ui.linkage.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,15 +632,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A4:P14"/>
+  <dimension ref="A4:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -848,34 +980,40 @@
     <col min="11" max="11" width="82.5" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="62.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="83.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="4"/>
+    <col min="14" max="14" width="72.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="3"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1">
+    <row r="5" spans="1:19" s="8" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -915,9 +1053,18 @@
       <c r="M5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1">
+    <row r="6" spans="1:19" s="8" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -957,20 +1104,29 @@
       <c r="M6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>41</v>
@@ -993,25 +1149,34 @@
         <v>30</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1019,36 +1184,45 @@
         <v>31</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1056,39 +1230,48 @@
         <v>31</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1096,36 +1279,45 @@
         <v>31</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>59</v>
+        <v>92</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19">
       <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1133,36 +1325,45 @@
         <v>31</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:19">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1170,36 +1371,45 @@
         <v>31</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:19">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1207,36 +1417,45 @@
         <v>31</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:19">
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>76</v>
+        <v>59</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1244,19 +1463,28 @@
         <v>31</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>79</v>
+        <v>108</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
